--- a/single_digit/Results/YvsZ_SVM_GL.xlsx
+++ b/single_digit/Results/YvsZ_SVM_GL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Group_Learning\single_digit\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A15AF3-1028-4396-9F3E-C14E4A0C27D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1160F9A-C5AD-4FD1-83BB-8FED9B13C4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60F57292-22A5-4A33-BAC1-D93E5267D72A}"/>
   </bookViews>
@@ -801,10 +801,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>SVM!$D$7:$H$7</c:f>
+              <c:f>SVM!$D$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -819,6 +819,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,10 +883,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>SVM!$D$7:$H$7</c:f>
+              <c:f>SVM!$D$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -895,6 +901,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3749,7 +3761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E7B3FA-A786-498B-86FF-4C69BB3470EF}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
